--- a/metadata/rawfiles_description_run3.xlsx
+++ b/metadata/rawfiles_description_run3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariiac/bioinf/immunohub/storage/mariiac/msms_figures/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF526E9-26FA-E849-AF36-0FEA5671B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEEFC79-0879-FE41-9E7B-690DC81F3B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tryp" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1372">
   <si>
     <t>Rawfilenumber</t>
   </si>
@@ -4135,6 +4135,15 @@
   </si>
   <si>
     <t>Ct+Tryp</t>
+  </si>
+  <si>
+    <t>EH7160</t>
+  </si>
+  <si>
+    <t>EH7161</t>
+  </si>
+  <si>
+    <t>EH7162</t>
   </si>
 </sst>
 </file>
@@ -11985,10 +11994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C342"/>
+  <dimension ref="A1:C345"/>
   <sheetViews>
-    <sheetView topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12010,9 +12019,9 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="1">
+        <v>1369</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -12021,9 +12030,9 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="1">
+        <v>1370</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -12032,9 +12041,9 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="1">
+        <v>1371</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -12043,9 +12052,9 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -12054,10 +12063,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>1367</v>
@@ -12065,10 +12074,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>1367</v>
@@ -12076,10 +12085,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
+        <v>343</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>1367</v>
@@ -12087,10 +12096,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>1367</v>
@@ -12098,10 +12107,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>1367</v>
@@ -12109,10 +12118,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>1367</v>
@@ -12120,10 +12129,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
+        <v>347</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>1367</v>
@@ -12131,10 +12140,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>348</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>1367</v>
@@ -12142,10 +12151,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1367</v>
@@ -12153,10 +12162,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>1367</v>
@@ -12164,10 +12173,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
+        <v>351</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>1367</v>
@@ -12175,10 +12184,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>1367</v>
@@ -12186,10 +12195,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>1367</v>
@@ -12197,10 +12206,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>1367</v>
@@ -12208,10 +12217,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5</v>
+        <v>355</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>1367</v>
@@ -12219,10 +12228,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>356</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>1367</v>
@@ -12230,10 +12239,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>357</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>1367</v>
@@ -12241,10 +12250,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>358</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>1367</v>
@@ -12252,10 +12261,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6</v>
+        <v>359</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>1367</v>
@@ -12263,10 +12272,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" s="1">
-        <v>6</v>
+        <v>360</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>1367</v>
@@ -12274,10 +12283,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6</v>
+        <v>361</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>1367</v>
@@ -12285,10 +12294,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>1367</v>
@@ -12296,10 +12305,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B28" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>1367</v>
@@ -12307,10 +12316,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>1367</v>
@@ -12318,10 +12327,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B30" s="1">
-        <v>7</v>
+        <v>365</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>1367</v>
@@ -12329,10 +12338,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>1367</v>
@@ -12340,10 +12349,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>1367</v>
@@ -12351,10 +12360,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B33" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>1367</v>
@@ -12362,10 +12371,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B34" s="1">
-        <v>8</v>
+        <v>369</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>1367</v>
@@ -12373,10 +12382,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
+        <v>370</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>1367</v>
@@ -12384,10 +12393,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B36" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>1367</v>
@@ -12395,10 +12404,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B37" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>1367</v>
@@ -12406,10 +12415,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B38" s="1">
-        <v>9</v>
+        <v>373</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>1367</v>
@@ -12417,10 +12426,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>1367</v>
@@ -12428,10 +12437,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B40" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>1367</v>
@@ -12439,10 +12448,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B41" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>1367</v>
@@ -12450,10 +12459,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B42" s="1">
-        <v>10</v>
+        <v>377</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>1367</v>
@@ -12461,10 +12470,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
+        <v>378</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>1367</v>
@@ -12472,10 +12481,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
+        <v>379</v>
+      </c>
+      <c r="B44" s="1">
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>1367</v>
@@ -12483,10 +12492,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
+        <v>380</v>
+      </c>
+      <c r="B45" s="1">
+        <v>10</v>
       </c>
       <c r="C45" t="s">
         <v>1367</v>
@@ -12494,10 +12503,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B46" s="1">
-        <v>11</v>
+        <v>381</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>1367</v>
@@ -12505,10 +12514,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B47" s="1">
-        <v>11</v>
+        <v>382</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>1367</v>
@@ -12516,10 +12525,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B48" s="1">
-        <v>11</v>
+        <v>383</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>1367</v>
@@ -12527,10 +12536,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1</v>
+        <v>384</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>1367</v>
@@ -12538,10 +12547,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B50" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>1367</v>
@@ -12549,10 +12558,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B51" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>1367</v>
@@ -12560,10 +12569,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B52" s="1">
-        <v>12</v>
+        <v>387</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>1367</v>
@@ -12571,10 +12580,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1</v>
+        <v>388</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>1367</v>
@@ -12582,10 +12591,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B54" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
         <v>1367</v>
@@ -12593,10 +12602,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B55" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>1367</v>
@@ -12604,10 +12613,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B56" s="1">
-        <v>13</v>
+        <v>391</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>1367</v>
@@ -12615,10 +12624,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
+        <v>392</v>
+      </c>
+      <c r="B57" s="1">
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>1367</v>
@@ -12626,10 +12635,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B58" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>1367</v>
@@ -12637,10 +12646,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B59" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>1367</v>
@@ -12648,10 +12657,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B60" s="1">
-        <v>14</v>
+        <v>395</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>1367</v>
@@ -12659,10 +12668,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>396</v>
+      </c>
+      <c r="B61" s="1">
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>1367</v>
@@ -12670,10 +12679,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B62" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>1367</v>
@@ -12681,10 +12690,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B63" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>1367</v>
@@ -12692,10 +12701,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B64" s="1">
-        <v>15</v>
+        <v>399</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>1367</v>
@@ -12703,10 +12712,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="B65" s="1">
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>1367</v>
@@ -12714,10 +12723,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B66" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
         <v>1367</v>
@@ -12725,10 +12734,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B67" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>1367</v>
@@ -12736,10 +12745,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B68" s="1">
-        <v>16</v>
+        <v>403</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C68" t="s">
         <v>1367</v>
@@ -12747,10 +12756,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1</v>
+        <v>404</v>
+      </c>
+      <c r="B69" s="1">
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>1367</v>
@@ -12758,10 +12767,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
+        <v>405</v>
+      </c>
+      <c r="B70" s="1">
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>1367</v>
@@ -12769,10 +12778,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="B71" s="1">
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>1367</v>
@@ -12780,10 +12789,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B72" s="1">
-        <v>17</v>
+        <v>407</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>1367</v>
@@ -12791,10 +12800,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B73" s="1">
-        <v>17</v>
+        <v>408</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C73" t="s">
         <v>1367</v>
@@ -12802,10 +12811,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B74" s="1">
-        <v>17</v>
+        <v>409</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C74" t="s">
         <v>1367</v>
@@ -12813,10 +12822,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1</v>
+        <v>410</v>
+      </c>
+      <c r="B75" s="1">
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>1367</v>
@@ -12824,10 +12833,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B76" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>1367</v>
@@ -12835,10 +12844,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B77" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>1367</v>
@@ -12846,10 +12855,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B78" s="1">
-        <v>18</v>
+        <v>413</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>1367</v>
@@ -12857,10 +12866,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1</v>
+        <v>414</v>
+      </c>
+      <c r="B79" s="1">
+        <v>18</v>
       </c>
       <c r="C79" t="s">
         <v>1367</v>
@@ -12868,10 +12877,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B80" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>1367</v>
@@ -12879,10 +12888,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B81" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>1367</v>
@@ -12890,10 +12899,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B82" s="1">
-        <v>19</v>
+        <v>417</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C82" t="s">
         <v>1367</v>
@@ -12901,10 +12910,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
+        <v>418</v>
+      </c>
+      <c r="B83" s="1">
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>1367</v>
@@ -12912,10 +12921,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B84" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>1367</v>
@@ -12923,10 +12932,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B85" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
         <v>1367</v>
@@ -12934,10 +12943,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B86" s="1">
-        <v>20</v>
+        <v>421</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C86" t="s">
         <v>1367</v>
@@ -12945,10 +12954,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
+        <v>422</v>
+      </c>
+      <c r="B87" s="1">
+        <v>20</v>
       </c>
       <c r="C87" t="s">
         <v>1367</v>
@@ -12956,10 +12965,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B88" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
         <v>1367</v>
@@ -12967,10 +12976,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B89" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
         <v>1367</v>
@@ -12978,10 +12987,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B90" s="1">
-        <v>21</v>
+        <v>425</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>1367</v>
@@ -12989,10 +12998,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1</v>
+        <v>426</v>
+      </c>
+      <c r="B91" s="1">
+        <v>21</v>
       </c>
       <c r="C91" t="s">
         <v>1367</v>
@@ -13000,10 +13009,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>1</v>
+        <v>427</v>
+      </c>
+      <c r="B92" s="1">
+        <v>21</v>
       </c>
       <c r="C92" t="s">
         <v>1367</v>
@@ -13011,10 +13020,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
+        <v>428</v>
+      </c>
+      <c r="B93" s="1">
+        <v>21</v>
       </c>
       <c r="C93" t="s">
         <v>1367</v>
@@ -13022,10 +13031,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B94" s="1">
-        <v>22</v>
+        <v>429</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C94" t="s">
         <v>1367</v>
@@ -13033,10 +13042,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B95" s="1">
-        <v>22</v>
+        <v>430</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>1367</v>
@@ -13044,10 +13053,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B96" s="1">
-        <v>22</v>
+        <v>431</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>1367</v>
@@ -13055,10 +13064,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>1</v>
+        <v>432</v>
+      </c>
+      <c r="B97" s="1">
+        <v>22</v>
       </c>
       <c r="C97" t="s">
         <v>1367</v>
@@ -13066,10 +13075,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B98" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
         <v>1367</v>
@@ -13077,10 +13086,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
         <v>1367</v>
@@ -13088,10 +13097,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B100" s="1">
-        <v>23</v>
+        <v>435</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>1367</v>
@@ -13099,10 +13108,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>1</v>
+        <v>436</v>
+      </c>
+      <c r="B101" s="1">
+        <v>23</v>
       </c>
       <c r="C101" t="s">
         <v>1367</v>
@@ -13110,10 +13119,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B102" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s">
         <v>1367</v>
@@ -13121,10 +13130,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B103" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
         <v>1367</v>
@@ -13132,10 +13141,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B104" s="1">
-        <v>24</v>
+        <v>439</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C104" t="s">
         <v>1367</v>
@@ -13143,10 +13152,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>1</v>
+        <v>440</v>
+      </c>
+      <c r="B105" s="1">
+        <v>24</v>
       </c>
       <c r="C105" t="s">
         <v>1367</v>
@@ -13154,10 +13163,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B106" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
         <v>1367</v>
@@ -13165,10 +13174,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B107" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
         <v>1367</v>
@@ -13176,10 +13185,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B108" s="1">
-        <v>25</v>
+        <v>443</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C108" t="s">
         <v>1367</v>
@@ -13187,10 +13196,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1</v>
+        <v>444</v>
+      </c>
+      <c r="B109" s="1">
+        <v>25</v>
       </c>
       <c r="C109" t="s">
         <v>1367</v>
@@ -13198,10 +13207,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>1</v>
+        <v>445</v>
+      </c>
+      <c r="B110" s="1">
+        <v>25</v>
       </c>
       <c r="C110" t="s">
         <v>1367</v>
@@ -13209,10 +13218,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1</v>
+        <v>446</v>
+      </c>
+      <c r="B111" s="1">
+        <v>25</v>
       </c>
       <c r="C111" t="s">
         <v>1367</v>
@@ -13220,10 +13229,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B112" s="1">
-        <v>26</v>
+        <v>447</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C112" t="s">
         <v>1367</v>
@@ -13231,10 +13240,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B113" s="1">
-        <v>26</v>
+        <v>448</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>1367</v>
@@ -13242,10 +13251,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B114" s="1">
-        <v>26</v>
+        <v>449</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C114" t="s">
         <v>1367</v>
@@ -13253,10 +13262,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="B115" s="1">
+        <v>26</v>
       </c>
       <c r="C115" t="s">
         <v>1367</v>
@@ -13264,10 +13273,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>1</v>
+        <v>451</v>
+      </c>
+      <c r="B116" s="1">
+        <v>26</v>
       </c>
       <c r="C116" t="s">
         <v>1367</v>
@@ -13275,10 +13284,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1</v>
+        <v>452</v>
+      </c>
+      <c r="B117" s="1">
+        <v>26</v>
       </c>
       <c r="C117" t="s">
         <v>1367</v>
@@ -13286,10 +13295,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B118" s="1">
-        <v>27</v>
+        <v>453</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>1367</v>
@@ -13297,10 +13306,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B119" s="1">
-        <v>27</v>
+        <v>454</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C119" t="s">
         <v>1367</v>
@@ -13308,10 +13317,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B120" s="1">
-        <v>27</v>
+        <v>455</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C120" t="s">
         <v>1367</v>
@@ -13319,10 +13328,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>1</v>
+        <v>456</v>
+      </c>
+      <c r="B121" s="1">
+        <v>27</v>
       </c>
       <c r="C121" t="s">
         <v>1367</v>
@@ -13330,10 +13339,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1</v>
+        <v>457</v>
+      </c>
+      <c r="B122" s="1">
+        <v>27</v>
       </c>
       <c r="C122" t="s">
         <v>1367</v>
@@ -13341,10 +13350,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>1</v>
+        <v>458</v>
+      </c>
+      <c r="B123" s="1">
+        <v>27</v>
       </c>
       <c r="C123" t="s">
         <v>1367</v>
@@ -13352,10 +13361,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B124" s="1">
-        <v>28</v>
+        <v>459</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C124" t="s">
         <v>1367</v>
@@ -13363,10 +13372,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B125" s="1">
-        <v>28</v>
+        <v>460</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C125" t="s">
         <v>1367</v>
@@ -13374,10 +13383,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B126" s="1">
-        <v>28</v>
+        <v>461</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C126" t="s">
         <v>1367</v>
@@ -13385,10 +13394,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>1</v>
+        <v>462</v>
+      </c>
+      <c r="B127" s="1">
+        <v>28</v>
       </c>
       <c r="C127" t="s">
         <v>1367</v>
@@ -13396,10 +13405,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>1</v>
+        <v>463</v>
+      </c>
+      <c r="B128" s="1">
+        <v>28</v>
       </c>
       <c r="C128" t="s">
         <v>1367</v>
@@ -13407,10 +13416,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1</v>
+        <v>464</v>
+      </c>
+      <c r="B129" s="1">
+        <v>28</v>
       </c>
       <c r="C129" t="s">
         <v>1367</v>
@@ -13418,10 +13427,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B130" s="1">
-        <v>29</v>
+        <v>465</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C130" t="s">
         <v>1367</v>
@@ -13429,10 +13438,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B131" s="1">
-        <v>29</v>
+        <v>466</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>1367</v>
@@ -13440,10 +13449,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B132" s="1">
-        <v>29</v>
+        <v>467</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>1367</v>
@@ -13451,10 +13460,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>1</v>
+        <v>468</v>
+      </c>
+      <c r="B133" s="1">
+        <v>29</v>
       </c>
       <c r="C133" t="s">
         <v>1367</v>
@@ -13462,10 +13471,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1</v>
+        <v>469</v>
+      </c>
+      <c r="B134" s="1">
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>1367</v>
@@ -13473,10 +13482,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>1</v>
+        <v>470</v>
+      </c>
+      <c r="B135" s="1">
+        <v>29</v>
       </c>
       <c r="C135" t="s">
         <v>1367</v>
@@ -13484,10 +13493,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B136" s="1">
-        <v>30</v>
+        <v>471</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>1367</v>
@@ -13495,10 +13504,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B137" s="1">
-        <v>30</v>
+        <v>472</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C137" t="s">
         <v>1367</v>
@@ -13506,10 +13515,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B138" s="1">
-        <v>30</v>
+        <v>473</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>1367</v>
@@ -13517,10 +13526,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="B139" s="1">
+        <v>30</v>
       </c>
       <c r="C139" t="s">
         <v>1367</v>
@@ -13528,10 +13537,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1</v>
+        <v>475</v>
+      </c>
+      <c r="B140" s="1">
+        <v>30</v>
       </c>
       <c r="C140" t="s">
         <v>1367</v>
@@ -13539,10 +13548,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1</v>
+        <v>476</v>
+      </c>
+      <c r="B141" s="1">
+        <v>30</v>
       </c>
       <c r="C141" t="s">
         <v>1367</v>
@@ -13550,10 +13559,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B142" s="1">
-        <v>31</v>
+        <v>477</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C142" t="s">
         <v>1367</v>
@@ -13561,10 +13570,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B143" s="1">
-        <v>31</v>
+        <v>478</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C143" t="s">
         <v>1367</v>
@@ -13572,10 +13581,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B144" s="1">
-        <v>31</v>
+        <v>479</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C144" t="s">
         <v>1367</v>
@@ -13583,10 +13592,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>1</v>
+        <v>480</v>
+      </c>
+      <c r="B145" s="1">
+        <v>31</v>
       </c>
       <c r="C145" t="s">
         <v>1367</v>
@@ -13594,10 +13603,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1</v>
+        <v>481</v>
+      </c>
+      <c r="B146" s="1">
+        <v>31</v>
       </c>
       <c r="C146" t="s">
         <v>1367</v>
@@ -13605,10 +13614,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1</v>
+        <v>482</v>
+      </c>
+      <c r="B147" s="1">
+        <v>31</v>
       </c>
       <c r="C147" t="s">
         <v>1367</v>
@@ -13616,10 +13625,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B148" s="1">
-        <v>32</v>
+        <v>483</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C148" t="s">
         <v>1367</v>
@@ -13627,10 +13636,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B149" s="1">
-        <v>32</v>
+        <v>484</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C149" t="s">
         <v>1367</v>
@@ -13638,10 +13647,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B150" s="1">
-        <v>32</v>
+        <v>485</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C150" t="s">
         <v>1367</v>
@@ -13649,10 +13658,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>1</v>
+        <v>486</v>
+      </c>
+      <c r="B151" s="1">
+        <v>32</v>
       </c>
       <c r="C151" t="s">
         <v>1367</v>
@@ -13660,10 +13669,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>1</v>
+        <v>487</v>
+      </c>
+      <c r="B152" s="1">
+        <v>32</v>
       </c>
       <c r="C152" t="s">
         <v>1367</v>
@@ -13671,10 +13680,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1</v>
+        <v>488</v>
+      </c>
+      <c r="B153" s="1">
+        <v>32</v>
       </c>
       <c r="C153" t="s">
         <v>1367</v>
@@ -13682,10 +13691,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B154" s="1">
-        <v>33</v>
+        <v>489</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C154" t="s">
         <v>1367</v>
@@ -13693,10 +13702,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B155" s="1">
-        <v>33</v>
+        <v>490</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>1367</v>
@@ -13704,10 +13713,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B156" s="1">
-        <v>33</v>
+        <v>491</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C156" t="s">
         <v>1367</v>
@@ -13715,10 +13724,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>1</v>
+        <v>492</v>
+      </c>
+      <c r="B157" s="1">
+        <v>33</v>
       </c>
       <c r="C157" t="s">
         <v>1367</v>
@@ -13726,10 +13735,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="B158" s="1">
+        <v>33</v>
       </c>
       <c r="C158" t="s">
         <v>1367</v>
@@ -13737,10 +13746,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>1</v>
+        <v>494</v>
+      </c>
+      <c r="B159" s="1">
+        <v>33</v>
       </c>
       <c r="C159" t="s">
         <v>1367</v>
@@ -13748,10 +13757,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B160" s="1">
-        <v>34</v>
+        <v>495</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>1367</v>
@@ -13759,10 +13768,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B161" s="1">
-        <v>34</v>
+        <v>496</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>1367</v>
@@ -13770,10 +13779,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B162" s="1">
-        <v>34</v>
+        <v>497</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>1367</v>
@@ -13781,10 +13790,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="B163" s="1">
+        <v>34</v>
       </c>
       <c r="C163" t="s">
         <v>1367</v>
@@ -13792,10 +13801,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>1</v>
+        <v>499</v>
+      </c>
+      <c r="B164" s="1">
+        <v>34</v>
       </c>
       <c r="C164" t="s">
         <v>1367</v>
@@ -13803,10 +13812,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>1</v>
+        <v>500</v>
+      </c>
+      <c r="B165" s="1">
+        <v>34</v>
       </c>
       <c r="C165" t="s">
         <v>1367</v>
@@ -13814,10 +13823,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B166" s="1">
-        <v>35</v>
+        <v>501</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>1367</v>
@@ -13825,10 +13834,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B167" s="1">
-        <v>35</v>
+        <v>502</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C167" t="s">
         <v>1367</v>
@@ -13836,10 +13845,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B168" s="1">
-        <v>35</v>
+        <v>503</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>1367</v>
@@ -13847,10 +13856,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>1</v>
+        <v>504</v>
+      </c>
+      <c r="B169" s="1">
+        <v>35</v>
       </c>
       <c r="C169" t="s">
         <v>1367</v>
@@ -13858,10 +13867,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>1</v>
+        <v>505</v>
+      </c>
+      <c r="B170" s="1">
+        <v>35</v>
       </c>
       <c r="C170" t="s">
         <v>1367</v>
@@ -13869,10 +13878,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>1</v>
+        <v>506</v>
+      </c>
+      <c r="B171" s="1">
+        <v>35</v>
       </c>
       <c r="C171" t="s">
         <v>1367</v>
@@ -13880,10 +13889,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B172" s="1">
-        <v>36</v>
+        <v>507</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>1367</v>
@@ -13891,10 +13900,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B173" s="1">
-        <v>36</v>
+        <v>508</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>1367</v>
@@ -13902,10 +13911,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B174" s="1">
-        <v>36</v>
+        <v>509</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>1367</v>
@@ -13913,10 +13922,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B175" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C175" t="s">
         <v>1367</v>
@@ -13924,10 +13933,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B176" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
         <v>1367</v>
@@ -13935,10 +13944,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B177" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>1367</v>
@@ -13946,10 +13955,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B178" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C178" t="s">
         <v>1367</v>
@@ -13957,10 +13966,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B179" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>1367</v>
@@ -13968,10 +13977,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B180" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
         <v>1367</v>
@@ -13979,10 +13988,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B181" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
         <v>1367</v>
@@ -13990,10 +13999,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B182" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
         <v>1367</v>
@@ -14001,10 +14010,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B183" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C183" t="s">
         <v>1367</v>
@@ -14012,10 +14021,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>1</v>
+        <v>519</v>
+      </c>
+      <c r="B184" s="1">
+        <v>39</v>
       </c>
       <c r="C184" t="s">
         <v>1367</v>
@@ -14023,10 +14032,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>1</v>
+        <v>520</v>
+      </c>
+      <c r="B185" s="1">
+        <v>39</v>
       </c>
       <c r="C185" t="s">
         <v>1367</v>
@@ -14034,10 +14043,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>1</v>
+        <v>521</v>
+      </c>
+      <c r="B186" s="1">
+        <v>39</v>
       </c>
       <c r="C186" t="s">
         <v>1367</v>
@@ -14045,10 +14054,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B187" s="1">
-        <v>40</v>
+        <v>522</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>1367</v>
@@ -14056,10 +14065,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B188" s="1">
-        <v>40</v>
+        <v>523</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>1367</v>
@@ -14067,10 +14076,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B189" s="1">
-        <v>40</v>
+        <v>524</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C189" t="s">
         <v>1367</v>
@@ -14078,10 +14087,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B190" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
         <v>1367</v>
@@ -14089,10 +14098,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B191" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s">
         <v>1367</v>
@@ -14100,10 +14109,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B192" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C192" t="s">
         <v>1367</v>
@@ -14111,10 +14120,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B193" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C193" t="s">
         <v>1367</v>
@@ -14122,10 +14131,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B194" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
         <v>1367</v>
@@ -14133,10 +14142,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B195" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
         <v>1367</v>
@@ -14144,10 +14153,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B196" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C196" t="s">
         <v>1367</v>
@@ -14155,10 +14164,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B197" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C197" t="s">
         <v>1367</v>
@@ -14166,10 +14175,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B198" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C198" t="s">
         <v>1367</v>
@@ -14177,10 +14186,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1</v>
+        <v>534</v>
+      </c>
+      <c r="B199" s="1">
+        <v>43</v>
       </c>
       <c r="C199" t="s">
         <v>1367</v>
@@ -14188,10 +14197,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>1</v>
+        <v>535</v>
+      </c>
+      <c r="B200" s="1">
+        <v>43</v>
       </c>
       <c r="C200" t="s">
         <v>1367</v>
@@ -14199,10 +14208,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>1</v>
+        <v>536</v>
+      </c>
+      <c r="B201" s="1">
+        <v>43</v>
       </c>
       <c r="C201" t="s">
         <v>1367</v>
@@ -14210,10 +14219,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B202" s="1">
-        <v>44</v>
+        <v>537</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>1367</v>
@@ -14221,10 +14230,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B203" s="1">
-        <v>44</v>
+        <v>538</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>1367</v>
@@ -14232,10 +14241,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B204" s="1">
-        <v>44</v>
+        <v>539</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>1367</v>
@@ -14243,10 +14252,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B205" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C205" t="s">
         <v>1367</v>
@@ -14254,10 +14263,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B206" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C206" t="s">
         <v>1367</v>
@@ -14265,10 +14274,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B207" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C207" t="s">
         <v>1367</v>
@@ -14276,10 +14285,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B208" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C208" t="s">
         <v>1367</v>
@@ -14287,10 +14296,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B209" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C209" t="s">
         <v>1367</v>
@@ -14298,10 +14307,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B210" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C210" t="s">
         <v>1367</v>
@@ -14309,10 +14318,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B211" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C211" t="s">
         <v>1367</v>
@@ -14320,10 +14329,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B212" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C212" t="s">
         <v>1367</v>
@@ -14331,10 +14340,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B213" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C213" t="s">
         <v>1367</v>
@@ -14342,10 +14351,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>1</v>
+        <v>549</v>
+      </c>
+      <c r="B214" s="1">
+        <v>47</v>
       </c>
       <c r="C214" t="s">
         <v>1367</v>
@@ -14353,10 +14362,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>1</v>
+        <v>550</v>
+      </c>
+      <c r="B215" s="1">
+        <v>47</v>
       </c>
       <c r="C215" t="s">
         <v>1367</v>
@@ -14364,10 +14373,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>1</v>
+        <v>551</v>
+      </c>
+      <c r="B216" s="1">
+        <v>47</v>
       </c>
       <c r="C216" t="s">
         <v>1367</v>
@@ -14375,10 +14384,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B217" s="1">
-        <v>48</v>
+        <v>552</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>1367</v>
@@ -14386,10 +14395,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B218" s="1">
-        <v>48</v>
+        <v>553</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>1367</v>
@@ -14397,10 +14406,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B219" s="1">
-        <v>48</v>
+        <v>554</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>1367</v>
@@ -14408,10 +14417,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>1</v>
+        <v>555</v>
+      </c>
+      <c r="B220" s="1">
+        <v>48</v>
       </c>
       <c r="C220" t="s">
         <v>1367</v>
@@ -14419,10 +14428,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>1</v>
+        <v>556</v>
+      </c>
+      <c r="B221" s="1">
+        <v>48</v>
       </c>
       <c r="C221" t="s">
         <v>1367</v>
@@ -14430,10 +14439,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>1</v>
+        <v>557</v>
+      </c>
+      <c r="B222" s="1">
+        <v>48</v>
       </c>
       <c r="C222" t="s">
         <v>1367</v>
@@ -14441,10 +14450,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B223" s="1">
-        <v>49</v>
+        <v>558</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>1367</v>
@@ -14452,10 +14461,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B224" s="1">
-        <v>49</v>
+        <v>559</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>1367</v>
@@ -14463,10 +14472,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B225" s="1">
-        <v>49</v>
+        <v>560</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>1367</v>
@@ -14474,10 +14483,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>1</v>
+        <v>561</v>
+      </c>
+      <c r="B226" s="1">
+        <v>49</v>
       </c>
       <c r="C226" t="s">
         <v>1367</v>
@@ -14485,10 +14494,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="B227" s="1">
+        <v>49</v>
       </c>
       <c r="C227" t="s">
         <v>1367</v>
@@ -14496,10 +14505,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>1</v>
+        <v>563</v>
+      </c>
+      <c r="B228" s="1">
+        <v>49</v>
       </c>
       <c r="C228" t="s">
         <v>1367</v>
@@ -14507,10 +14516,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B229" s="1">
-        <v>50</v>
+        <v>564</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>1367</v>
@@ -14518,10 +14527,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B230" s="1">
-        <v>50</v>
+        <v>565</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C230" t="s">
         <v>1367</v>
@@ -14529,10 +14538,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B231" s="1">
-        <v>50</v>
+        <v>566</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>1367</v>
@@ -14540,10 +14549,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>1</v>
+        <v>567</v>
+      </c>
+      <c r="B232" s="1">
+        <v>50</v>
       </c>
       <c r="C232" t="s">
         <v>1367</v>
@@ -14551,10 +14560,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>1</v>
+        <v>568</v>
+      </c>
+      <c r="B233" s="1">
+        <v>50</v>
       </c>
       <c r="C233" t="s">
         <v>1367</v>
@@ -14562,10 +14571,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>1</v>
+        <v>569</v>
+      </c>
+      <c r="B234" s="1">
+        <v>50</v>
       </c>
       <c r="C234" t="s">
         <v>1367</v>
@@ -14573,10 +14582,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B235" s="1">
-        <v>51</v>
+        <v>570</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>1367</v>
@@ -14584,10 +14593,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B236" s="1">
-        <v>51</v>
+        <v>571</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>1367</v>
@@ -14595,10 +14604,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B237" s="1">
-        <v>51</v>
+        <v>572</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>1367</v>
@@ -14606,10 +14615,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>1</v>
+        <v>573</v>
+      </c>
+      <c r="B238" s="1">
+        <v>51</v>
       </c>
       <c r="C238" t="s">
         <v>1367</v>
@@ -14617,10 +14626,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>1</v>
+        <v>574</v>
+      </c>
+      <c r="B239" s="1">
+        <v>51</v>
       </c>
       <c r="C239" t="s">
         <v>1367</v>
@@ -14628,10 +14637,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="B240" s="1">
+        <v>51</v>
       </c>
       <c r="C240" t="s">
         <v>1367</v>
@@ -14639,10 +14648,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B241" s="1">
-        <v>52</v>
+        <v>576</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>1367</v>
@@ -14650,10 +14659,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B242" s="1">
-        <v>52</v>
+        <v>577</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>1367</v>
@@ -14661,10 +14670,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B243" s="1">
-        <v>52</v>
+        <v>578</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C243" t="s">
         <v>1367</v>
@@ -14672,10 +14681,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>1</v>
+        <v>579</v>
+      </c>
+      <c r="B244" s="1">
+        <v>52</v>
       </c>
       <c r="C244" t="s">
         <v>1367</v>
@@ -14683,10 +14692,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="B245" s="1">
+        <v>52</v>
       </c>
       <c r="C245" t="s">
         <v>1367</v>
@@ -14694,10 +14703,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>1</v>
+        <v>581</v>
+      </c>
+      <c r="B246" s="1">
+        <v>52</v>
       </c>
       <c r="C246" t="s">
         <v>1367</v>
@@ -14705,10 +14714,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B247" s="1">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>1367</v>
@@ -14716,10 +14725,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B248" s="1">
-        <v>53</v>
+        <v>583</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>1367</v>
@@ -14727,10 +14736,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B249" s="1">
-        <v>53</v>
+        <v>584</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>1367</v>
@@ -14738,10 +14747,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="B250" s="1">
+        <v>53</v>
       </c>
       <c r="C250" t="s">
         <v>1367</v>
@@ -14749,10 +14758,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="B251" s="1">
+        <v>53</v>
       </c>
       <c r="C251" t="s">
         <v>1367</v>
@@ -14760,10 +14769,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>1</v>
+        <v>587</v>
+      </c>
+      <c r="B252" s="1">
+        <v>53</v>
       </c>
       <c r="C252" t="s">
         <v>1367</v>
@@ -14771,10 +14780,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B253" s="1">
-        <v>54</v>
+        <v>588</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>1367</v>
@@ -14782,10 +14791,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B254" s="1">
-        <v>54</v>
+        <v>589</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>1367</v>
@@ -14793,10 +14802,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B255" s="1">
-        <v>54</v>
+        <v>590</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>1367</v>
@@ -14804,10 +14813,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="B256" s="1">
+        <v>54</v>
       </c>
       <c r="C256" t="s">
         <v>1367</v>
@@ -14815,10 +14824,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>1</v>
+        <v>592</v>
+      </c>
+      <c r="B257" s="1">
+        <v>54</v>
       </c>
       <c r="C257" t="s">
         <v>1367</v>
@@ -14826,10 +14835,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>1</v>
+        <v>593</v>
+      </c>
+      <c r="B258" s="1">
+        <v>54</v>
       </c>
       <c r="C258" t="s">
         <v>1367</v>
@@ -14837,10 +14846,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B259" s="1">
-        <v>55</v>
+        <v>594</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>1367</v>
@@ -14848,10 +14857,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B260" s="1">
-        <v>55</v>
+        <v>595</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>1367</v>
@@ -14859,10 +14868,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B261" s="1">
-        <v>55</v>
+        <v>596</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>1367</v>
@@ -14870,10 +14879,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B262" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C262" t="s">
         <v>1367</v>
@@ -14881,10 +14890,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B263" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C263" t="s">
         <v>1367</v>
@@ -14892,10 +14901,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B264" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C264" t="s">
         <v>1367</v>
@@ -14903,10 +14912,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B265" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C265" t="s">
         <v>1367</v>
@@ -14914,10 +14923,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B266" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C266" t="s">
         <v>1367</v>
@@ -14925,10 +14934,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B267" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C267" t="s">
         <v>1367</v>
@@ -14936,10 +14945,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B268" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C268" t="s">
         <v>1367</v>
@@ -14947,10 +14956,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B269" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C269" t="s">
         <v>1367</v>
@@ -14958,10 +14967,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B270" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C270" t="s">
         <v>1367</v>
@@ -14969,10 +14978,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>1</v>
+        <v>606</v>
+      </c>
+      <c r="B271" s="1">
+        <v>58</v>
       </c>
       <c r="C271" t="s">
         <v>1367</v>
@@ -14980,10 +14989,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>1</v>
+        <v>607</v>
+      </c>
+      <c r="B272" s="1">
+        <v>58</v>
       </c>
       <c r="C272" t="s">
         <v>1367</v>
@@ -14991,10 +15000,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>1</v>
+        <v>608</v>
+      </c>
+      <c r="B273" s="1">
+        <v>58</v>
       </c>
       <c r="C273" t="s">
         <v>1367</v>
@@ -15002,10 +15011,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B274" s="1">
-        <v>59</v>
+        <v>609</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C274" t="s">
         <v>1367</v>
@@ -15013,10 +15022,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B275" s="1">
-        <v>59</v>
+        <v>610</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C275" t="s">
         <v>1367</v>
@@ -15024,10 +15033,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B276" s="1">
-        <v>59</v>
+        <v>611</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C276" t="s">
         <v>1367</v>
@@ -15035,10 +15044,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>1</v>
+        <v>612</v>
+      </c>
+      <c r="B277" s="1">
+        <v>59</v>
       </c>
       <c r="C277" t="s">
         <v>1367</v>
@@ -15046,10 +15055,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>1</v>
+        <v>613</v>
+      </c>
+      <c r="B278" s="1">
+        <v>59</v>
       </c>
       <c r="C278" t="s">
         <v>1367</v>
@@ -15057,10 +15066,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>1</v>
+        <v>614</v>
+      </c>
+      <c r="B279" s="1">
+        <v>59</v>
       </c>
       <c r="C279" t="s">
         <v>1367</v>
@@ -15068,7 +15077,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>1</v>
@@ -15079,7 +15088,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>1</v>
@@ -15090,7 +15099,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>1</v>
@@ -15101,10 +15110,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B283" s="1">
-        <v>60</v>
+        <v>618</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C283" t="s">
         <v>1367</v>
@@ -15112,10 +15121,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B284" s="1">
-        <v>60</v>
+        <v>619</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C284" t="s">
         <v>1367</v>
@@ -15123,10 +15132,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B285" s="1">
-        <v>60</v>
+        <v>620</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C285" t="s">
         <v>1367</v>
@@ -15134,10 +15143,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>1</v>
+        <v>621</v>
+      </c>
+      <c r="B286" s="1">
+        <v>60</v>
       </c>
       <c r="C286" t="s">
         <v>1367</v>
@@ -15145,10 +15154,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>1</v>
+        <v>622</v>
+      </c>
+      <c r="B287" s="1">
+        <v>60</v>
       </c>
       <c r="C287" t="s">
         <v>1367</v>
@@ -15156,10 +15165,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>1</v>
+        <v>623</v>
+      </c>
+      <c r="B288" s="1">
+        <v>60</v>
       </c>
       <c r="C288" t="s">
         <v>1367</v>
@@ -15167,10 +15176,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B289" s="1">
-        <v>61</v>
+        <v>624</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C289" t="s">
         <v>1367</v>
@@ -15178,10 +15187,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B290" s="1">
-        <v>61</v>
+        <v>625</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C290" t="s">
         <v>1367</v>
@@ -15189,10 +15198,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B291" s="1">
-        <v>61</v>
+        <v>626</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C291" t="s">
         <v>1367</v>
@@ -15200,10 +15209,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>1</v>
+        <v>627</v>
+      </c>
+      <c r="B292" s="1">
+        <v>61</v>
       </c>
       <c r="C292" t="s">
         <v>1367</v>
@@ -15211,10 +15220,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>1</v>
+        <v>628</v>
+      </c>
+      <c r="B293" s="1">
+        <v>61</v>
       </c>
       <c r="C293" t="s">
         <v>1367</v>
@@ -15222,10 +15231,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>1</v>
+        <v>629</v>
+      </c>
+      <c r="B294" s="1">
+        <v>61</v>
       </c>
       <c r="C294" t="s">
         <v>1367</v>
@@ -15233,10 +15242,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B295" s="1">
-        <v>62</v>
+        <v>630</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C295" t="s">
         <v>1367</v>
@@ -15244,10 +15253,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B296" s="1">
-        <v>62</v>
+        <v>631</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C296" t="s">
         <v>1367</v>
@@ -15255,10 +15264,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B297" s="1">
-        <v>62</v>
+        <v>632</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C297" t="s">
         <v>1367</v>
@@ -15266,10 +15275,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>1</v>
+        <v>633</v>
+      </c>
+      <c r="B298" s="1">
+        <v>62</v>
       </c>
       <c r="C298" t="s">
         <v>1367</v>
@@ -15277,10 +15286,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>1</v>
+        <v>634</v>
+      </c>
+      <c r="B299" s="1">
+        <v>62</v>
       </c>
       <c r="C299" t="s">
         <v>1367</v>
@@ -15288,10 +15297,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>1</v>
+        <v>635</v>
+      </c>
+      <c r="B300" s="1">
+        <v>62</v>
       </c>
       <c r="C300" t="s">
         <v>1367</v>
@@ -15299,10 +15308,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B301" s="1">
-        <v>63</v>
+        <v>636</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C301" t="s">
         <v>1367</v>
@@ -15310,10 +15319,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B302" s="1">
-        <v>63</v>
+        <v>637</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C302" t="s">
         <v>1367</v>
@@ -15321,10 +15330,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B303" s="1">
-        <v>63</v>
+        <v>638</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C303" t="s">
         <v>1367</v>
@@ -15332,10 +15341,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>1</v>
+        <v>639</v>
+      </c>
+      <c r="B304" s="1">
+        <v>63</v>
       </c>
       <c r="C304" t="s">
         <v>1367</v>
@@ -15343,10 +15352,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>1</v>
+        <v>640</v>
+      </c>
+      <c r="B305" s="1">
+        <v>63</v>
       </c>
       <c r="C305" t="s">
         <v>1367</v>
@@ -15354,10 +15363,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>1</v>
+        <v>641</v>
+      </c>
+      <c r="B306" s="1">
+        <v>63</v>
       </c>
       <c r="C306" t="s">
         <v>1367</v>
@@ -15365,10 +15374,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B307" s="1">
-        <v>64</v>
+        <v>642</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C307" t="s">
         <v>1367</v>
@@ -15376,10 +15385,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B308" s="1">
-        <v>64</v>
+        <v>643</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C308" t="s">
         <v>1367</v>
@@ -15387,10 +15396,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B309" s="1">
-        <v>64</v>
+        <v>644</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C309" t="s">
         <v>1367</v>
@@ -15398,10 +15407,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>1</v>
+        <v>645</v>
+      </c>
+      <c r="B310" s="1">
+        <v>64</v>
       </c>
       <c r="C310" t="s">
         <v>1367</v>
@@ -15409,10 +15418,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1</v>
+        <v>646</v>
+      </c>
+      <c r="B311" s="1">
+        <v>64</v>
       </c>
       <c r="C311" t="s">
         <v>1367</v>
@@ -15420,10 +15429,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>1</v>
+        <v>647</v>
+      </c>
+      <c r="B312" s="1">
+        <v>64</v>
       </c>
       <c r="C312" t="s">
         <v>1367</v>
@@ -15431,10 +15440,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B313" s="1">
-        <v>65</v>
+        <v>648</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C313" t="s">
         <v>1367</v>
@@ -15442,10 +15451,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B314" s="1">
-        <v>65</v>
+        <v>649</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C314" t="s">
         <v>1367</v>
@@ -15453,10 +15462,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B315" s="1">
-        <v>65</v>
+        <v>650</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C315" t="s">
         <v>1367</v>
@@ -15464,10 +15473,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>1</v>
+        <v>651</v>
+      </c>
+      <c r="B316" s="1">
+        <v>65</v>
       </c>
       <c r="C316" t="s">
         <v>1367</v>
@@ -15475,10 +15484,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>1</v>
+        <v>652</v>
+      </c>
+      <c r="B317" s="1">
+        <v>65</v>
       </c>
       <c r="C317" t="s">
         <v>1367</v>
@@ -15486,10 +15495,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>1</v>
+        <v>653</v>
+      </c>
+      <c r="B318" s="1">
+        <v>65</v>
       </c>
       <c r="C318" t="s">
         <v>1367</v>
@@ -15497,10 +15506,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B319" s="1">
-        <v>66</v>
+        <v>654</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C319" t="s">
         <v>1367</v>
@@ -15508,10 +15517,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B320" s="1">
-        <v>66</v>
+        <v>655</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C320" t="s">
         <v>1367</v>
@@ -15519,10 +15528,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B321" s="1">
-        <v>66</v>
+        <v>656</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C321" t="s">
         <v>1367</v>
@@ -15530,10 +15539,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>1</v>
+        <v>657</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66</v>
       </c>
       <c r="C322" t="s">
         <v>1367</v>
@@ -15541,10 +15550,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>1</v>
+        <v>658</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66</v>
       </c>
       <c r="C323" t="s">
         <v>1367</v>
@@ -15552,10 +15561,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>1</v>
+        <v>659</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66</v>
       </c>
       <c r="C324" t="s">
         <v>1367</v>
@@ -15563,10 +15572,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B325" s="1">
-        <v>67</v>
+        <v>660</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C325" t="s">
         <v>1367</v>
@@ -15574,10 +15583,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B326" s="1">
-        <v>67</v>
+        <v>661</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C326" t="s">
         <v>1367</v>
@@ -15585,10 +15594,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B327" s="1">
-        <v>67</v>
+        <v>662</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C327" t="s">
         <v>1367</v>
@@ -15596,10 +15605,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B328" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C328" t="s">
         <v>1367</v>
@@ -15607,10 +15616,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B329" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C329" t="s">
         <v>1367</v>
@@ -15618,10 +15627,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B330" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C330" t="s">
         <v>1367</v>
@@ -15629,10 +15638,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>1</v>
+        <v>666</v>
+      </c>
+      <c r="B331" s="1">
+        <v>68</v>
       </c>
       <c r="C331" t="s">
         <v>1367</v>
@@ -15640,10 +15649,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>1</v>
+        <v>667</v>
+      </c>
+      <c r="B332" s="1">
+        <v>68</v>
       </c>
       <c r="C332" t="s">
         <v>1367</v>
@@ -15651,10 +15660,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>1</v>
+        <v>668</v>
+      </c>
+      <c r="B333" s="1">
+        <v>68</v>
       </c>
       <c r="C333" t="s">
         <v>1367</v>
@@ -15662,10 +15671,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B334" s="1">
-        <v>69</v>
+        <v>669</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C334" t="s">
         <v>1367</v>
@@ -15673,10 +15682,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B335" s="1">
-        <v>69</v>
+        <v>670</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C335" t="s">
         <v>1367</v>
@@ -15684,10 +15693,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B336" s="1">
-        <v>69</v>
+        <v>671</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C336" t="s">
         <v>1367</v>
@@ -15695,10 +15704,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>1</v>
+        <v>672</v>
+      </c>
+      <c r="B337" s="1">
+        <v>69</v>
       </c>
       <c r="C337" t="s">
         <v>1367</v>
@@ -15706,10 +15715,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>1</v>
+        <v>673</v>
+      </c>
+      <c r="B338" s="1">
+        <v>69</v>
       </c>
       <c r="C338" t="s">
         <v>1367</v>
@@ -15717,10 +15726,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>1</v>
+        <v>674</v>
+      </c>
+      <c r="B339" s="1">
+        <v>69</v>
       </c>
       <c r="C339" t="s">
         <v>1367</v>
@@ -15728,10 +15737,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B340" s="1">
-        <v>70</v>
+        <v>675</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C340" t="s">
         <v>1367</v>
@@ -15739,10 +15748,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B341" s="1">
-        <v>70</v>
+        <v>676</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C341" t="s">
         <v>1367</v>
@@ -15750,12 +15759,45 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B343" s="1">
+        <v>70</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B344" s="1">
+        <v>70</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B345" s="1">
         <v>70</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C345" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -15768,8 +15810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="F342" sqref="F342"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
